--- a/data/trans_bre/LAWTONB_2R3-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/LAWTONB_2R3-Provincia-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.8565067260229352</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4285926158979239</v>
+        <v>0.4285926158979238</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-13.44841256274255</v>
+        <v>-14.27409492557047</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.812974657279034</v>
+        <v>2.385762937262494</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.38082244827119</v>
+        <v>-1.447388640212212</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.979609379782002</v>
+        <v>-0.2338034735176226</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6554332089844542</v>
+        <v>-0.6857498373282332</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09399787998741045</v>
+        <v>0.03117010342694779</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1254339321287229</v>
+        <v>-0.1050776602777912</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05530316077096745</v>
+        <v>-0.01737638936787305</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>19.98628159051693</v>
+        <v>19.82975596219491</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>41.85230378590432</v>
+        <v>41.22226202700393</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37.39204045234701</v>
+        <v>38.36045239403592</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23.4917087214059</v>
+        <v>23.89694318500408</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.549077625893481</v>
+        <v>2.587080891252461</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.767720296570228</v>
+        <v>2.722653540458689</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>3.197050081899945</v>
+        <v>2.915692425018414</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.21568381921609</v>
+        <v>1.168787214280594</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>15.95546246262571</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>21.3870331719609</v>
+        <v>21.38703317196089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1919555062007144</v>
@@ -749,7 +749,7 @@
         <v>1.690925192847067</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.815866560952451</v>
+        <v>1.815866560952449</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.086044619941136</v>
+        <v>-8.305097879095701</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-2.918054874275686</v>
+        <v>-2.883069899442949</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.282344576999073</v>
+        <v>5.431092515485968</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.19441336632866</v>
+        <v>12.61009174481173</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5381474850435088</v>
+        <v>-0.5342862204871195</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1214722375041091</v>
+        <v>-0.126974575439692</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3331300545395952</v>
+        <v>0.3271053499208985</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6826110403049117</v>
+        <v>0.6331816662464862</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.20843419935495</v>
+        <v>12.60006405073438</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>25.89407305423577</v>
+        <v>26.47445315226947</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26.66502216853161</v>
+        <v>27.39176408849057</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>30.52008898849803</v>
+        <v>29.95392475313031</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.809938015274443</v>
+        <v>2.156740154848064</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.459030406051067</v>
+        <v>2.11223763483031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>4.730120648570846</v>
+        <v>5.418595144393223</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>4.322662992695458</v>
+        <v>4.689389162196359</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-1.511544997849677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9.015392575830264</v>
+        <v>9.015392575830274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>1.116615767268611</v>
@@ -849,7 +849,7 @@
         <v>-0.1168662600710026</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.3748666136962294</v>
+        <v>0.37486661369623</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.3856263689757293</v>
+        <v>-1.973987465891673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-16.74852660037403</v>
+        <v>-16.54915407097952</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.92397965530818</v>
+        <v>-11.67250988268772</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.566843172524331</v>
+        <v>-2.186592936598857</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1228626616237275</v>
+        <v>-0.2566870013561365</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5140347125006611</v>
+        <v>-0.5052055693466861</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.7135432594761738</v>
+        <v>-0.6601989779153526</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05654695170868788</v>
+        <v>-0.07655035970660326</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>23.05544982144486</v>
+        <v>22.0128832305877</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>15.46593606337653</v>
+        <v>14.4253894449739</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.941408476703421</v>
+        <v>9.953202873963011</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.94370219972844</v>
+        <v>18.78285007234863</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>6.269258547773826</v>
+        <v>4.892995294922013</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.082783228305594</v>
+        <v>0.9122704776229592</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.297635149304291</v>
+        <v>1.455469769375952</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.021265986524089</v>
+        <v>1.035265705282401</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.3376924850891472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4.405296753741669</v>
+        <v>4.405296753741672</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>2.780892663840345</v>
@@ -949,7 +949,7 @@
         <v>0.01787592073947718</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2448766656754411</v>
+        <v>0.2448766656754412</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>4.970647084336114</v>
+        <v>5.527155229034599</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-12.39277527162818</v>
+        <v>-13.15056204745299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.27292151704392</v>
+        <v>-13.27401905448568</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-4.355070661225778</v>
+        <v>-4.604372814743058</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.3093553449335016</v>
+        <v>0.2697262747223865</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3676226684456578</v>
+        <v>-0.3914185080810283</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.506421484902307</v>
+        <v>-0.5412677525713212</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1905238031462786</v>
+        <v>-0.1768199589236033</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>28.6280314438722</v>
+        <v>28.97329524407441</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.71010393058746</v>
+        <v>16.98818077936792</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.43952130944505</v>
+        <v>13.80851477186888</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>12.27417652986999</v>
+        <v>12.41140444280604</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>14.35998004390223</v>
+        <v>14.10478357063658</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.023337193047875</v>
+        <v>1.035239050198034</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.068030522067474</v>
+        <v>1.134667208630377</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9185054764802028</v>
+        <v>1.023816338357681</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>26.63467742431277</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.336247573877579</v>
+        <v>3.336247573877591</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1558490448168146</v>
@@ -1049,7 +1049,7 @@
         <v>2.721993599470467</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.1586326947787551</v>
+        <v>0.1586326947787557</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.28979783267145</v>
+        <v>-15.81077667460417</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.44480579525333</v>
+        <v>-12.84421647482208</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.64595683880406</v>
+        <v>9.232353021543698</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.530635566949453</v>
+        <v>-8.680287599432864</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.5035823146627315</v>
+        <v>-0.4617878305843698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4329622073807791</v>
+        <v>-0.435917740065808</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4973954613957172</v>
+        <v>0.4009613340138825</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3144377428256072</v>
+        <v>-0.2978366797346363</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>23.89173407372638</v>
+        <v>24.17249642914509</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>26.63517771796736</v>
+        <v>25.97591545812462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>42.63136560123913</v>
+        <v>43.06016968740884</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>14.80767822352986</v>
+        <v>13.9895460515431</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.681877978665964</v>
+        <v>1.747501171298531</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2.754685954656845</v>
+        <v>3.094101594576721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>10.38479386244746</v>
+        <v>9.414061215659951</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.051053118630052</v>
+        <v>1.042330784814375</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>5.407841103098912</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.558220933913082</v>
+        <v>5.558220933913072</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.07327326028830189</v>
@@ -1149,7 +1149,7 @@
         <v>0.2238556834335141</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.1777004428750852</v>
+        <v>0.1777004428750849</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-15.29402666991987</v>
+        <v>-16.95595155357882</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-18.52036415640082</v>
+        <v>-17.95705382544719</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-11.18435426287675</v>
+        <v>-10.99550443955087</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-4.453438296197916</v>
+        <v>-6.289921983454507</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5906031824102183</v>
+        <v>-0.6192559703030805</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4913134713523387</v>
+        <v>-0.4909991849871373</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3774209364729502</v>
+        <v>-0.3749193909895056</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1245006328755972</v>
+        <v>-0.1595592337378187</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>12.8160052171617</v>
+        <v>12.72913111465082</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.78382291843197</v>
+        <v>14.98975874001438</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>22.39615342441364</v>
+        <v>21.81080467760298</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>16.45348721054489</v>
+        <v>14.95936749546537</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.570503378080777</v>
+        <v>1.36331990361996</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8521907904171258</v>
+        <v>0.7634556832743742</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.332217803132089</v>
+        <v>1.420082198525923</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.6385735936921336</v>
+        <v>0.599146275896549</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>10.29291607981015</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>17.2812576580163</v>
+        <v>17.28125765801631</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5574633857279256</v>
@@ -1249,7 +1249,7 @@
         <v>0.591646493305208</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1.781620140667836</v>
+        <v>1.781620140667837</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.857113569624143</v>
+        <v>-2.844561241386022</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.83850511821201</v>
+        <v>-10.17707681920869</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.282085401473541</v>
+        <v>0.8959254889805139</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9.993515764812445</v>
+        <v>9.867464644020352</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3422574563031465</v>
+        <v>-0.2944056819678994</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3702606979132047</v>
+        <v>-0.3575039611032742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0137568041200451</v>
+        <v>0.03647536402568706</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.7112073044766227</v>
+        <v>0.6993330914949909</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>12.43099979627872</v>
+        <v>12.46341443282452</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.66010070302073</v>
+        <v>11.63928586780685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>20.76778053740964</v>
+        <v>21.02396382798891</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>24.96631689298554</v>
+        <v>24.83668732569519</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>2.473483918659075</v>
+        <v>2.649409139938343</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6963063334801748</v>
+        <v>0.7591524659107592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.810624794923837</v>
+        <v>1.835592311076499</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>4.022202141146082</v>
+        <v>4.316792934077719</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>3.772275967121258</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>14.71384685532134</v>
+        <v>14.71384685532133</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2561455315750752</v>
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-5.980451875865166</v>
+        <v>-6.242196517645816</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-4.314843443667299</v>
+        <v>-3.01913888492312</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.498877773791055</v>
+        <v>-4.820310875758987</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8.442934663985794</v>
+        <v>8.361707897646909</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2807125293636057</v>
+        <v>-0.2897912305175865</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2958164935121799</v>
+        <v>-0.2176789164644343</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2806729943042325</v>
+        <v>-0.3071939133106838</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7138805355196219</v>
+        <v>0.6968725110666875</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>12.61462002355578</v>
+        <v>13.62813284744545</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>14.31711497142154</v>
+        <v>15.657275942059</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12.77181143601349</v>
+        <v>12.242574622492</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>20.13323626497806</v>
+        <v>20.21496781060631</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.052360668665223</v>
+        <v>1.201174724164331</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.007325586266119</v>
+        <v>2.591836251693261</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.569847951745473</v>
+        <v>1.586290492865006</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.408350129509251</v>
+        <v>3.620839417855273</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.438523573247353</v>
+        <v>1.270482358441453</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2486888316619936</v>
+        <v>0.5365458909883117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.927929674900042</v>
+        <v>4.095298797062812</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9.160147893858351</v>
+        <v>9.247453928240168</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.09513698175247624</v>
+        <v>0.06457120237403928</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-5.956334141764177e-05</v>
+        <v>0.02401566151744887</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2228227702023939</v>
+        <v>0.2398049263700064</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>0.5143355594510063</v>
+        <v>0.516864225768322</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.820528045449372</v>
+        <v>9.954366500011009</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.25105678351329</v>
+        <v>10.22998309355016</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>12.80402596940563</v>
+        <v>13.04206810176698</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>15.50158113595875</v>
+        <v>15.61704906035429</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.911057014602488</v>
+        <v>0.9146275069533906</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5538921736061692</v>
+        <v>0.5769737194381845</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>1.004796323488993</v>
+        <v>0.991315759589659</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1.076004491323109</v>
+        <v>1.110719988764022</v>
       </c>
     </row>
     <row r="31">
